--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test-Demo\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01C491-121F-4A26-B5E4-603F1E21CD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155446A-C0A0-4A4A-95E9-120CDCB031A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,9 +84,6 @@
     <t>698</t>
   </si>
   <si>
-    <t>693</t>
-  </si>
-  <si>
     <t>689</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
   </si>
   <si>
     <t>郭晶</t>
-  </si>
-  <si>
-    <t>潘永杰</t>
   </si>
   <si>
     <t>刘书强</t>
@@ -1207,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1234,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1300,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1311,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1333,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1344,10 +1338,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,10 +1349,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,10 +1360,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1377,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1388,10 +1382,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1399,10 +1393,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1410,10 +1404,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1421,10 +1415,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1432,10 +1426,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1443,10 +1437,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>116</v>
@@ -1476,10 +1470,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,10 +1481,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,10 +1492,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,10 +1503,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1531,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,10 +1536,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,10 +1547,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>119</v>
@@ -1575,10 +1569,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,10 +1580,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,10 +1591,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,10 +1602,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,10 +1613,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1630,10 +1624,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,10 +1635,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1652,10 +1646,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1663,10 +1657,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,7 +1668,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>119</v>
@@ -1685,10 +1679,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,10 +1690,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1707,10 +1701,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,10 +1712,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1729,10 +1723,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,10 +1734,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1751,10 +1745,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1773,10 +1767,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1784,10 +1778,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,10 +1789,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1806,10 +1800,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,10 +1811,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,10 +1822,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,10 +1833,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,10 +1844,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1861,10 +1855,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,10 +1866,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,10 +1877,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,10 +1888,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1905,10 +1899,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,10 +1910,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,10 +1921,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1938,10 +1932,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,10 +1943,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1960,10 +1954,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,10 +1965,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,10 +1976,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1993,10 +1987,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2004,10 +1998,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2015,10 +2009,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2026,10 +2020,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2037,10 +2031,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2048,7 +2042,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>122</v>
@@ -2059,10 +2053,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2070,10 +2064,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2081,10 +2075,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2092,10 +2086,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2103,10 +2097,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2114,10 +2108,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2125,10 +2119,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2136,10 +2130,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2147,10 +2141,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2158,10 +2152,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2169,10 +2163,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,10 +2174,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2191,10 +2185,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,10 +2196,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2213,10 +2207,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,10 +2218,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,10 +2229,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2246,7 +2240,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>124</v>
@@ -2257,10 +2251,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,10 +2262,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2279,10 +2273,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2290,10 +2284,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2301,10 +2295,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2312,10 +2306,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,10 +2317,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2334,10 +2328,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2345,10 +2339,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,10 +2350,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,10 +2361,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2378,10 +2372,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2389,10 +2383,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2400,10 +2394,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,7 +2405,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>134</v>
@@ -2422,22 +2416,15 @@
         <v>111</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
@@ -2524,8 +2511,7 @@
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
@@ -2553,9 +2539,6 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
